--- a/Dataforexpreiment/图/4最大传输时延变化的时间复杂度.xlsx
+++ b/Dataforexpreiment/图/4最大传输时延变化的时间复杂度.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>交易大小</t>
   </si>
   <si>
     <t>分片成员数量</t>
-  </si>
-  <si>
-    <t>δ</t>
   </si>
   <si>
     <t>Δ</t>
@@ -62,14 +59,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,10 +531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,33 +543,36 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -589,118 +582,110 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1022,8 +1007,8 @@
   <sheetPr/>
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1042,35 +1027,33 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1080,42 +1063,32 @@
       <c r="B2">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
-        <v>11.3814</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="3"/>
+      <c r="D2" s="2">
         <v>20</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E10" si="0">SUM(D2*6+C2*6)</f>
         <v>188.2884</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F10" si="1">SUM(D2*15+C2*9)</f>
         <v>402.4326</v>
       </c>
-      <c r="G2" s="5">
-        <f t="shared" ref="G2:G10" si="2">SUM(D2*15+C2*8)</f>
+      <c r="G2" s="4">
         <v>391.0512</v>
       </c>
-      <c r="H2" s="5">
-        <f t="shared" ref="H2:H10" si="3">SUM(D2*10+C2*6)</f>
+      <c r="H2" s="4">
         <v>268.2884</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I10" si="4">SUM(D2*9+C2*6)</f>
         <v>248.2884</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J10" si="5">SUM(D2*19+C2*9)</f>
         <v>482.4326</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K10" si="6">SUM(D2*19+C2*8)</f>
         <v>471.0512</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L10" si="7">SUM(D2*14+C2*6)</f>
         <v>348.2884</v>
       </c>
     </row>
@@ -1126,42 +1099,32 @@
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
-        <v>12.2397</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
         <v>35</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
         <v>283.4382</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
         <v>635.1573</v>
       </c>
-      <c r="G3" s="5">
-        <f t="shared" si="2"/>
+      <c r="G3" s="4">
         <v>622.9176</v>
       </c>
-      <c r="H3" s="5">
-        <f t="shared" si="3"/>
+      <c r="H3" s="4">
         <v>423.4382</v>
       </c>
       <c r="I3">
-        <f t="shared" si="4"/>
         <v>388.4382</v>
       </c>
       <c r="J3">
-        <f t="shared" si="5"/>
         <v>775.1573</v>
       </c>
       <c r="K3">
-        <f t="shared" si="6"/>
         <v>762.9176</v>
       </c>
       <c r="L3">
-        <f t="shared" si="7"/>
         <v>563.4382</v>
       </c>
     </row>
@@ -1172,42 +1135,32 @@
       <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
-        <v>16.1456</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
         <v>50</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
         <v>396.8736</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
         <v>895.3104</v>
       </c>
-      <c r="G4" s="5">
-        <f t="shared" si="2"/>
+      <c r="G4" s="4">
         <v>879.1648</v>
       </c>
-      <c r="H4" s="5">
-        <f t="shared" si="3"/>
+      <c r="H4" s="4">
         <v>596.8736</v>
       </c>
       <c r="I4">
-        <f t="shared" si="4"/>
         <v>546.8736</v>
       </c>
       <c r="J4">
-        <f t="shared" si="5"/>
         <v>1095.3104</v>
       </c>
       <c r="K4">
-        <f t="shared" si="6"/>
         <v>1079.1648</v>
       </c>
       <c r="L4">
-        <f t="shared" si="7"/>
         <v>796.8736</v>
       </c>
     </row>
@@ -1218,42 +1171,32 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
-        <v>20.4618</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" s="2"/>
+      <c r="D5" s="5">
         <v>75</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
         <v>572.7708</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
         <v>1309.1562</v>
       </c>
-      <c r="G5" s="5">
-        <f t="shared" si="2"/>
+      <c r="G5" s="4">
         <v>1288.6944</v>
       </c>
-      <c r="H5" s="5">
-        <f t="shared" si="3"/>
+      <c r="H5" s="4">
         <v>872.7708</v>
       </c>
       <c r="I5">
-        <f t="shared" si="4"/>
         <v>797.7708</v>
       </c>
       <c r="J5">
-        <f t="shared" si="5"/>
         <v>1609.1562</v>
       </c>
       <c r="K5">
-        <f t="shared" si="6"/>
         <v>1588.6944</v>
       </c>
       <c r="L5">
-        <f t="shared" si="7"/>
         <v>1172.7708</v>
       </c>
     </row>
@@ -1264,42 +1207,32 @@
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
-        <v>25.0648</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
         <v>100</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
         <v>750.3888</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
         <v>1725.5832</v>
       </c>
-      <c r="G6" s="5">
-        <f t="shared" si="2"/>
+      <c r="G6" s="4">
         <v>1700.5184</v>
       </c>
-      <c r="H6" s="5">
-        <f t="shared" si="3"/>
+      <c r="H6" s="4">
         <v>1150.3888</v>
       </c>
       <c r="I6">
-        <f t="shared" si="4"/>
         <v>1050.3888</v>
       </c>
       <c r="J6">
-        <f t="shared" si="5"/>
         <v>2125.5832</v>
       </c>
       <c r="K6">
-        <f t="shared" si="6"/>
         <v>2100.5184</v>
       </c>
       <c r="L6">
-        <f t="shared" si="7"/>
         <v>1550.3888</v>
       </c>
     </row>
@@ -1310,42 +1243,32 @@
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="2">
-        <v>27.5946</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="2"/>
+      <c r="D7" s="5">
         <v>200</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
         <v>1365.5676</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
         <v>3248.3514</v>
       </c>
-      <c r="G7" s="5">
-        <f t="shared" si="2"/>
+      <c r="G7" s="4">
         <v>3220.7568</v>
       </c>
-      <c r="H7" s="5">
-        <f t="shared" si="3"/>
+      <c r="H7" s="4">
         <v>2165.5676</v>
       </c>
       <c r="I7">
-        <f t="shared" si="4"/>
         <v>1965.5676</v>
       </c>
       <c r="J7">
-        <f t="shared" si="5"/>
         <v>4048.3514</v>
       </c>
       <c r="K7">
-        <f t="shared" si="6"/>
         <v>4020.7568</v>
       </c>
       <c r="L7">
-        <f t="shared" si="7"/>
         <v>2965.5676</v>
       </c>
     </row>
@@ -1356,549 +1279,531 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="2">
-        <v>29.0594</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
         <v>500</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
         <v>3174.3564</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
         <v>7761.5346</v>
       </c>
-      <c r="G8" s="5">
-        <f t="shared" si="2"/>
+      <c r="G8" s="4">
         <v>7732.4752</v>
       </c>
-      <c r="H8" s="5">
-        <f t="shared" si="3"/>
+      <c r="H8" s="4">
         <v>5174.3564</v>
       </c>
       <c r="I8">
-        <f t="shared" si="4"/>
         <v>4674.3564</v>
       </c>
       <c r="J8">
-        <f t="shared" si="5"/>
         <v>9761.5346</v>
       </c>
       <c r="K8">
-        <f t="shared" si="6"/>
         <v>9732.4752</v>
       </c>
       <c r="L8">
-        <f t="shared" si="7"/>
         <v>7174.3564</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2"/>
-      <c r="B9"/>
       <c r="C9" s="2"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2"/>
-      <c r="B10"/>
       <c r="C10" s="2"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="14" spans="5:7">
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="5:7">
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
     </row>
     <row r="25" spans="2:18">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
     </row>
     <row r="30" spans="2:18">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
     </row>
     <row r="31" spans="2:18">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
     </row>
     <row r="32" spans="2:18">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
     </row>
     <row r="33" spans="2:18">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
     </row>
     <row r="34" spans="2:18">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
     </row>
     <row r="35" spans="2:18">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
     </row>
     <row r="36" spans="2:18">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
     </row>
     <row r="37" spans="2:18">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
     </row>
     <row r="38" spans="2:18">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
     </row>
     <row r="39" spans="2:18">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
     </row>
     <row r="40" spans="2:18">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
